--- a/Daily progress/Aswath jerma- Daily progress.xlsx
+++ b/Daily progress/Aswath jerma- Daily progress.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswath jerma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40BD01B9-55B2-4378-A727-EA57B1E34445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D2031D5-B98F-4F2B-B417-18BF108ACBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{32A9C765-6534-41EC-BDFD-7B7F47D4F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily progress sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Coupa basics and ove view 
+•full stack web development </t>
   </si>
   <si>
     <t xml:space="preserve">•Had a small discusion with Harika about coupa and their uses cases.
@@ -67,15 +71,31 @@
 •Some web dev tools unable to install in chromebook.</t>
   </si>
   <si>
-    <t xml:space="preserve">•Coupa basics and ove view 
-•full stack web development </t>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> •full stack web development </t>
+  </si>
+  <si>
+    <t>• Practiced Node.js concepts and setup.
+• Understood and implemented MongoDB connection using Mongoose.
+• Explored MongoDB Atlas and created a new cluster for remote database access.
+• Understood each line of the MongoDB connection logic and its error handling mechanism.</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>• Practiced on creating servers with express js
+•worked on  making a basic photo gallery app by using node js
+•Practiced on writing Javascript syntaxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,20 +524,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0AC457-5C34-409D-BFA2-7D598DF3627A}">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -534,31 +554,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="202.9">
       <c r="A3" s="4">
-        <f ca="1">TODAY()</f>
         <v>45866</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:5" ht="162">
+      <c r="A4" s="4">
+        <v>45867</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:5" ht="81">
+      <c r="A5" s="4">
+        <v>45868</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
